--- a/V1000_Drive_Programmer/data/64275_1.XLSX
+++ b/V1000_Drive_Programmer/data/64275_1.XLSX
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="945" yWindow="0" windowWidth="23025" windowHeight="9870"/>
+    <workbookView xWindow="945" yWindow="0" windowWidth="22065" windowHeight="9870"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -349,7 +349,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false"/>
   </sheetViews>
@@ -367,6 +367,11 @@
       </c>
     </row>
     <row outlineLevel="0" r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="B2" s="0" t="inlineStr">
         <is>
           <t>A1-01</t>
@@ -379,6 +384,11 @@
       </c>
     </row>
     <row outlineLevel="0" r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="B3" s="0" t="inlineStr">
         <is>
           <t>A1-03</t>
@@ -391,374 +401,155 @@
       </c>
     </row>
     <row outlineLevel="0" r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="B4" s="0" t="inlineStr">
         <is>
-          <t>B1-01</t>
+          <t>B1-03</t>
         </is>
       </c>
       <c r="C4" s="0" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="B5" s="0" t="inlineStr">
         <is>
-          <t>B1-02</t>
+          <t>D1-17</t>
         </is>
       </c>
       <c r="C5" s="0" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2000</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
-          <t>B1-03</t>
+          <t>D2-02</t>
         </is>
       </c>
       <c r="C6" s="0" t="inlineStr">
         <is>
+          <t>230</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="inlineStr">
+        <is>
+          <t>E1-04</t>
+        </is>
+      </c>
+      <c r="C7" s="0" t="inlineStr">
+        <is>
+          <t>660</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="inlineStr">
+        <is>
+          <t>H1-02</t>
+        </is>
+      </c>
+      <c r="C8" s="0" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="inlineStr">
+        <is>
+          <t>H1-04</t>
+        </is>
+      </c>
+      <c r="C9" s="0" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="inlineStr">
+        <is>
+          <t>H1-07</t>
+        </is>
+      </c>
+      <c r="C10" s="0" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="inlineStr">
+        <is>
+          <t>L1-01</t>
+        </is>
+      </c>
+      <c r="C11" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="inlineStr">
+        <is>
+          <t>O4-02</t>
+        </is>
+      </c>
+      <c r="C12" s="0" t="inlineStr">
+        <is>
           <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="7">
-      <c r="B7" s="0" t="inlineStr">
-        <is>
-          <t>B1-04</t>
-        </is>
-      </c>
-      <c r="C7" s="0" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="8">
-      <c r="B8" s="0" t="inlineStr">
-        <is>
-          <t>B1-14</t>
-        </is>
-      </c>
-      <c r="C8" s="0" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="9">
-      <c r="B9" s="0" t="inlineStr">
-        <is>
-          <t>D1-01</t>
-        </is>
-      </c>
-      <c r="C9" s="0" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="10">
-      <c r="B10" s="0" t="inlineStr">
-        <is>
-          <t>D1-02</t>
-        </is>
-      </c>
-      <c r="C10" s="0" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="11">
-      <c r="B11" s="0" t="inlineStr">
-        <is>
-          <t>D1-03</t>
-        </is>
-      </c>
-      <c r="C11" s="0" t="inlineStr">
-        <is>
-          <t>3000</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="12">
-      <c r="B12" s="0" t="inlineStr">
-        <is>
-          <t>D1-04</t>
-        </is>
-      </c>
-      <c r="C12" s="0" t="inlineStr">
-        <is>
-          <t>4000</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="13">
-      <c r="B13" s="0" t="inlineStr">
-        <is>
-          <t>D1-05</t>
-        </is>
-      </c>
-      <c r="C13" s="0" t="inlineStr">
-        <is>
-          <t>5000</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="14">
-      <c r="B14" s="0" t="inlineStr">
-        <is>
-          <t>D1-06</t>
-        </is>
-      </c>
-      <c r="C14" s="0" t="inlineStr">
-        <is>
-          <t>6000</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="15">
-      <c r="B15" s="0" t="inlineStr">
-        <is>
-          <t>D1-07</t>
-        </is>
-      </c>
-      <c r="C15" s="0" t="inlineStr">
-        <is>
-          <t>7000</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="16">
-      <c r="B16" s="0" t="inlineStr">
-        <is>
-          <t>D1-08</t>
-        </is>
-      </c>
-      <c r="C16" s="0" t="inlineStr">
-        <is>
-          <t>1500</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="17">
-      <c r="B17" s="0" t="inlineStr">
-        <is>
-          <t>D1-09</t>
-        </is>
-      </c>
-      <c r="C17" s="0" t="inlineStr">
-        <is>
-          <t>2500</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="18">
-      <c r="B18" s="0" t="inlineStr">
-        <is>
-          <t>D1-10</t>
-        </is>
-      </c>
-      <c r="C18" s="0" t="inlineStr">
-        <is>
-          <t>3500</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="19">
-      <c r="B19" s="0" t="inlineStr">
-        <is>
-          <t>D1-11</t>
-        </is>
-      </c>
-      <c r="C19" s="0" t="inlineStr">
-        <is>
-          <t>4500</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="20">
-      <c r="B20" s="0" t="inlineStr">
-        <is>
-          <t>D1-12</t>
-        </is>
-      </c>
-      <c r="C20" s="0" t="inlineStr">
-        <is>
-          <t>5500</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="21">
-      <c r="B21" s="0" t="inlineStr">
-        <is>
-          <t>D1-13</t>
-        </is>
-      </c>
-      <c r="C21" s="0" t="inlineStr">
-        <is>
-          <t>6500</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="22">
-      <c r="B22" s="0" t="inlineStr">
-        <is>
-          <t>D1-14</t>
-        </is>
-      </c>
-      <c r="C22" s="0" t="inlineStr">
-        <is>
-          <t>7500</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="23">
-      <c r="B23" s="0" t="inlineStr">
-        <is>
-          <t>D1-15</t>
-        </is>
-      </c>
-      <c r="C23" s="0" t="inlineStr">
-        <is>
-          <t>8500</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="24">
-      <c r="B24" s="0" t="inlineStr">
-        <is>
-          <t>D1-16</t>
-        </is>
-      </c>
-      <c r="C24" s="0" t="inlineStr">
-        <is>
-          <t>500</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="25">
-      <c r="B25" s="0" t="inlineStr">
-        <is>
-          <t>D1-17</t>
-        </is>
-      </c>
-      <c r="C25" s="0" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="26">
-      <c r="B26" s="0" t="inlineStr">
-        <is>
-          <t>D2-02</t>
-        </is>
-      </c>
-      <c r="C26" s="0" t="inlineStr">
-        <is>
-          <t>500</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="27">
-      <c r="B27" s="0" t="inlineStr">
-        <is>
-          <t>E1-01</t>
-        </is>
-      </c>
-      <c r="C27" s="0" t="inlineStr">
-        <is>
-          <t>208</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="28">
-      <c r="B28" s="0" t="inlineStr">
-        <is>
-          <t>E1-04</t>
-        </is>
-      </c>
-      <c r="C28" s="0" t="inlineStr">
-        <is>
-          <t>900</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="29">
-      <c r="B29" s="0" t="inlineStr">
-        <is>
-          <t>E1-05</t>
-        </is>
-      </c>
-      <c r="C29" s="0" t="inlineStr">
-        <is>
-          <t>2080</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="30">
-      <c r="B30" s="0" t="inlineStr">
-        <is>
-          <t>E1-06</t>
-        </is>
-      </c>
-      <c r="C30" s="0" t="inlineStr">
-        <is>
-          <t>500</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="31">
-      <c r="B31" s="0" t="inlineStr">
-        <is>
-          <t>E2-01</t>
-        </is>
-      </c>
-      <c r="C31" s="0" t="inlineStr">
-        <is>
-          <t>275</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="32">
-      <c r="B32" s="0" t="inlineStr">
-        <is>
-          <t>H1-01</t>
-        </is>
-      </c>
-      <c r="C32" s="0" t="inlineStr">
-        <is>
-          <t>144</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="33">
-      <c r="B33" s="0" t="inlineStr">
-        <is>
-          <t>H1-02</t>
-        </is>
-      </c>
-      <c r="C33" s="0" t="inlineStr">
-        <is>
-          <t>145</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="34">
-      <c r="B34" s="0" t="inlineStr">
-        <is>
-          <t>L1-01</t>
-        </is>
-      </c>
-      <c r="C34" s="0" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
     </row>
